--- a/Project1/InstructionSet.xlsx
+++ b/Project1/InstructionSet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
   <si>
     <t>A-Type</t>
   </si>
@@ -153,10 +153,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,14 +462,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="25" width="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3" customWidth="1"/>
+    <col min="10" max="27" width="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="35" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -490,15 +492,13 @@
         <v>28</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
+        <f>I3 - 1</f>
         <v>25</v>
       </c>
       <c r="K3">
@@ -534,7 +534,7 @@
         <v>17</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
+        <f>R3- 1</f>
         <v>16</v>
       </c>
       <c r="T3">
@@ -609,236 +609,224 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF4" s="2" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF5" s="2" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI6" s="3" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -849,412 +837,412 @@
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1263,136 +1251,132 @@
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI16" s="3" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="P7:AI7"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="P12:AI12"/>
-    <mergeCell ref="P10:AI10"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="P15:AI15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:AI13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:AI14"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:AI8"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:AI11"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="P9:AI9"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="R11:AI11"/>
+    <mergeCell ref="R9:AI9"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
     <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="R12:AI12"/>
+    <mergeCell ref="R10:AI10"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="R15:AI15"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R13:AI13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="R14:AI14"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="R7:AI7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:AI8"/>
+    <mergeCell ref="D9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Project1/InstructionSet.xlsx
+++ b/Project1/InstructionSet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="10515" windowHeight="4680"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
   <si>
     <t>A-Type</t>
   </si>
@@ -106,13 +106,52 @@
   </si>
   <si>
     <t>ANDI</t>
+  </si>
+  <si>
+    <t>B1-Type</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>010000</t>
+  </si>
+  <si>
+    <t>010010</t>
+  </si>
+  <si>
+    <t>011000</t>
+  </si>
+  <si>
+    <t>011001</t>
+  </si>
+  <si>
+    <t>010011</t>
+  </si>
+  <si>
+    <t>010100</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
+    <t>010110</t>
+  </si>
+  <si>
+    <t>010111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +196,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -248,7 +290,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,7 +324,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,14 +499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:M4"/>
+      <selection activeCell="J13" sqref="J13:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3" customWidth="1"/>
@@ -475,7 +515,7 @@
     <col min="32" max="35" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35">
       <c r="D3">
         <v>31</v>
       </c>
@@ -602,21 +642,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
@@ -678,18 +718,18 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
@@ -751,18 +791,18 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
@@ -830,21 +870,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
@@ -878,18 +918,18 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="3" t="s">
         <v>6</v>
       </c>
@@ -923,18 +963,18 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="3" t="s">
         <v>6</v>
       </c>
@@ -968,18 +1008,18 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1013,18 +1053,18 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1058,18 +1098,18 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1103,18 +1143,18 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,18 +1188,21 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1193,18 +1236,18 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1244,21 +1287,21 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1328,24 +1371,20 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="R11:AI11"/>
-    <mergeCell ref="R9:AI9"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="R12:AI12"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="R7:AI7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:AI8"/>
+    <mergeCell ref="D9:I9"/>
     <mergeCell ref="R10:AI10"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="N16:Q16"/>
@@ -1362,21 +1401,25 @@
     <mergeCell ref="N10:Q10"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="J11:M11"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="R9:AI9"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="R11:AI11"/>
+    <mergeCell ref="R12:AI12"/>
     <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="R7:AI7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:AI8"/>
-    <mergeCell ref="D9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1384,24 +1427,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
